--- a/biology/Biologie cellulaire et moléculaire/Protéine_kinase/Protéine_kinase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Protéine_kinase/Protéine_kinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_kinase</t>
+          <t>Protéine_kinase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les kinases de protéine ou protéine-kinases (de l'anglais protein kinase) sont des enzymes qui catalysent le transfert d'un groupe phosphate de l'adénosine triphosphate (ATP) sur le groupe hydroxyle (–OH) des chaînes latérales des acides aminés ayant une fonction alcool : sérine, thréonine et tyrosine.
 Protéine–OH + ATP → protéine–O-PO32− + ADP
